--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9846FF0-7F14-461E-8463-291FBAE92F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15C5A4-82DA-4604-9911-FD6EC3B3E5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望值</t>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,25 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等边三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等边三角形</t>
-  </si>
-  <si>
-    <t>不构成三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不构成三角形</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -390,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -426,42 +417,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15C5A4-82DA-4604-9911-FD6EC3B3E5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF45A4F-E226-43DB-81CE-FDEE9C00F779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,44 @@
   <si>
     <t>执行结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有非正数长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不构成三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有非正数长度</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+  </si>
+  <si>
+    <t>等边三角形</t>
+  </si>
+  <si>
+    <t>普通三角形</t>
+  </si>
+  <si>
+    <t>不构成三角形</t>
   </si>
   <si>
     <t>fail</t>
@@ -381,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,16 +458,295 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E11" t="s">
         <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF45A4F-E226-43DB-81CE-FDEE9C00F779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CE263-9CEE-4C96-91D8-BA961DE8013C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>等腰三角形</t>
-  </si>
-  <si>
-    <t>等边三角形</t>
-  </si>
-  <si>
-    <t>普通三角形</t>
-  </si>
-  <si>
-    <t>不构成三角形</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -422,7 +407,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,12 +474,6 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -512,12 +491,6 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -535,12 +508,6 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -558,12 +525,6 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -581,12 +542,6 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -604,12 +559,6 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -627,12 +576,6 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -650,12 +593,6 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -673,12 +610,6 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -695,12 +626,6 @@
       </c>
       <c r="E12" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -719,12 +644,6 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -741,12 +660,6 @@
       </c>
       <c r="E14" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>普通三角形</t>
+  </si>
+  <si>
+    <t>不构成三角形</t>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+  </si>
+  <si>
+    <t>等边三角形</t>
   </si>
 </sst>
 </file>
@@ -474,6 +486,12 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -491,6 +509,12 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -508,6 +532,12 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -525,6 +555,12 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -542,6 +578,12 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -559,6 +601,12 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -576,6 +624,12 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -593,6 +647,12 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -610,6 +670,12 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -627,6 +693,12 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -644,6 +716,12 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -660,6 +738,12 @@
       </c>
       <c r="E14" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
